--- a/medicine/Mort/Cimetière_national_de_fort_Mitchell/Cimetière_national_de_fort_Mitchell.xlsx
+++ b/medicine/Mort/Cimetière_national_de_fort_Mitchell/Cimetière_national_de_fort_Mitchell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Mitchell</t>
+          <t>Cimetière_national_de_fort_Mitchell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de fort Mitchell est l'un des 130 cimetière nationaux des États-Unis, situé dans le fort Mitchell, Alabama, adjacent au parc du fort Mitchell, propriété de l'Etat. Environ 5 000 [individus y sont enterrés depuis son ouverture officielle sur un site de 280 acres (113,3 ha) en 1987. Il sert comme un cimetière national de la quatrième région fédérale, au profit des anciens combattants résidant en Caroline du Nord, en Caroline du Sud, en Géorgie, en Floride, en Alabama, au Tennessee et au Mississippi.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Mitchell</t>
+          <t>Cimetière_national_de_fort_Mitchell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La milice de Géorgie construit à l'origine le fort Mitchell afin de maintenir une présence militaire dans la région au cours de la  guerre des Creeks de 1813 à 1814. Peu de temps après l'achèvement du fort, la milice de Géorgie lance une attaque contre les Britanniques à Tuckabatchie et Hothlewali. La milice est prise dans une embuscade et repoussée vers le fort Mitchell par une force combinée des Creeks et des Britanniques. Par la suite, jusqu'en 1825, la garnison  du fort est maintenue par une petite force.
 De 1817 à 1825, le fort Mitchell s'impose progressivement comme un centre de commerce pour le commerce avec les Amérindiens. En 1817, une maison de commerce, ou usine, est créée où les marchandises produites sont à la disposition des tribus locales à des prix inférieurs à ce qu'ils pourraient trouver autrement. En 1818, un bureau de poste est ajouté sur la nouvelle route fédérale qui traverse le fort Mitchell d'Augusta, en Géorgie, et vers l'ouest dans le territoire de l'Alabama.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Mitchell</t>
+          <t>Cimetière_national_de_fort_Mitchell</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Sépultures notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Timpoochee Barnard, chef militaire Yuchi[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Timpoochee Barnard, chef militaire Yuchi
 Sergent Matthew Leonard, récipiendaire de la médaille d'honneur pour son action lors du Viêt Nam (anciennement enterré dans le parc mémoriel de Shadow Lawn de Birmingham)</t>
         </is>
       </c>
